--- a/public/uploads/alumnos.xlsx
+++ b/public/uploads/alumnos.xlsx
@@ -132,19 +132,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="A2:E4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -164,9 +165,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
